--- a/Base_Margenes_v3.xlsx
+++ b/Base_Margenes_v3.xlsx
@@ -16343,7 +16343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16364,6 +16364,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>DESCRIPCIÓN INSUMO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PRECIO</t>
         </is>
       </c>
@@ -16379,7 +16384,12 @@
           <t>FLM01AA00</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Film plástico estándar</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>150</v>
       </c>
     </row>
@@ -16394,7 +16404,12 @@
           <t>PLA01VL00</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Placa volátil industrial</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -16409,7 +16424,12 @@
           <t>FLM01AA00</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Film plástico estándar</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>160</v>
       </c>
     </row>
@@ -16424,7 +16444,12 @@
           <t>FLM01AA00</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Film plástico estándar</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>170</v>
       </c>
     </row>
